--- a/data/01_raw/SEDE+regic.xlsx
+++ b/data/01_raw/SEDE+regic.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="777">
   <si>
     <t>UTPs_PAN_3</t>
   </si>
@@ -2350,6 +2350,9 @@
   </si>
   <si>
     <t>Salvador do Sul</t>
+  </si>
+  <si>
+    <t>Manhuaçu</t>
   </si>
 </sst>
 </file>
@@ -2676,11 +2679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G751"/>
+  <dimension ref="A1:G752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C758" sqref="C758"/>
+    <sheetView tabSelected="1" topLeftCell="A750" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2707,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5200100</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3100203</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1500107</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2900108</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2100055</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2300309</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3500105</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2600203</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5100201</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3500501</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2500403</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2200251</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2900702</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2100204</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4300406</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3101706</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5100250</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1500602</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1400050</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5100300</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5200605</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5200803</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5000609</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1600105</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1300060</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3501608</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3501905</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1500701</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2901304</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3300100</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5001003</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3502705</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4101408</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1300144</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5001102</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2800308</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2301109</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3502804</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3103405</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1701903</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1702000</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1702109</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3103504</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1702208</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2700300</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4101507</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4201406</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3503208</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3503307</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2601102</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3300209</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3104007</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3104205</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2601201</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5101308</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5101407</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1100023</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3503802</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5202502</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3504008</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1200054</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1300300</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2101202</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4301602</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2902609</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2201150</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5203104</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4202008</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2101400</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4102406</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3105608</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1300409</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2902708</v>
       </c>
@@ -3727,7 +3729,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3505302</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2902807</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2101608</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5101803</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4301875</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2903201</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1300508</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2101707</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3505500</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5001904</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3506003</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5002100</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1501402</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2601607</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3106200</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4302105</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1300631</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3506508</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4202404</v>
       </c>
@@ -3993,7 +3995,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2302404</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1400100</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1300706</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3507001</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3107406</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3300506</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2201903</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2903904</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1400159</v>
       </c>
@@ -4119,7 +4121,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5002209</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1300805</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3507506</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1501709</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3507605</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3108552</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1200104</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5300108</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3108602</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2904308</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1501808</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2904605</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4202909</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1100452</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3109303</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4302709</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1100031</v>
       </c>
@@ -4357,7 +4359,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3300704</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2603009</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4203006</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4302808</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5102504</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4303004</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3508603</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3201209</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1100049</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2905008</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2905206</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2402006</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2905404</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3509254</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2503704</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1600204</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5204508</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3110509</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5002605</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4303509</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1502103</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2302602</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2504009</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3509502</v>
       </c>
@@ -4693,7 +4695,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5002704</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2202208</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4104303</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5102637</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5204904</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3509700</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3301009</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1502152</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5102702</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2906303</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4203808</v>
       </c>
@@ -4847,7 +4849,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2906808</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2202307</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4304630</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3112307</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2906873</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4203907</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4104600</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3510401</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1400209</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3113404</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1301001</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4304705</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3114402</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2604106</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2102903</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2907202</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4104808</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2303501</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5002902</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2202604</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4104907</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5205109</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3511102</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5205307</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3115508</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2103000</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4305108</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1100056</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5205406</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3511508</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5103007</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5205471</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5002951</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2103208</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4204202</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1502509</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4105508</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4305454</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1301209</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2908101</v>
       </c>
@@ -5407,7 +5409,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1301308</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3201506</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5103205</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2103505</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1705508</v>
       </c>
@@ -5477,7 +5479,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2504405</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1502707</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2908408</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3117504</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4204301</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4106407</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2103604</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5003157</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2202901</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5003207</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2702306</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1100080</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5003256</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5003306</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2304103</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4204608</v>
       </c>
@@ -5701,7 +5703,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5206206</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5206404</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4306106</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4106704</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1200203</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5103403</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2505105</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1502764</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2909901</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4106902</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4204806</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2403103</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2103703</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3120904</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2702405</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>3121605</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5103502</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1707009</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3122306</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2505709</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5003702</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>3514403</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5207402</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1301407</v>
       </c>
@@ -6037,7 +6039,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2910404</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4307005</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2203701</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2104057</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2910701</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2910727</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1200302</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2910800</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4308102</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2605459</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3515509</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2203909</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4205407</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1301605</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2911105</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2304400</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2104107</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4108304</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3516200</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4108403</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4308508</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3127107</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2606002</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4308656</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5103858</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3516903</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4308904</v>
       </c>
@@ -6415,7 +6417,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2204402</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>5208608</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5208707</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1709005</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4108601</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3127701</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2104800</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4309100</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4108809</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1100106</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2404507</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2911709</v>
       </c>
@@ -6583,7 +6585,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3128006</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4309407</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2506301</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1709302</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>5104104</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3202405</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4109401</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3518404</v>
       </c>
@@ -6695,7 +6697,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4109609</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1503101</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1709500</v>
       </c>
@@ -6737,7 +6739,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1301704</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4109708</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4310009</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2913200</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1503200</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4310207</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3520400</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2913606</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4207304</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2105302</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5210109</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3131307</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2305803</v>
       </c>
@@ -6919,7 +6921,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2914406</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2914604</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2506905</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2914703</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5210406</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3131703</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2914802</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1301902</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2607505</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1503606</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3132404</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3133105</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3302106</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4208302</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3302205</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2916401</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3522307</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3522406</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3522703</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2507002</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4310603</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3523206</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2306553</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3523404</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3523909</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3134202</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5211503</v>
       </c>
@@ -7297,7 +7299,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3524105</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>4111506</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3524303</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1503754</v>
       </c>
@@ -7353,7 +7355,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>4111803</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5104807</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2917508</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>4311007</v>
       </c>
@@ -7409,7 +7411,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2306900</v>
       </c>
@@ -7423,7 +7425,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4208807</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3524808</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3135100</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3135209</v>
       </c>
@@ -7479,7 +7481,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1302108</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>4208906</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5005004</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2405504</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5211909</v>
       </c>
@@ -7549,7 +7551,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3525300</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2918001</v>
       </c>
@@ -7577,7 +7579,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3135803</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2307254</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1100122</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4209003</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3136207</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2507507</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3136306</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4209102</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5105101</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2307304</v>
       </c>
@@ -7717,7 +7719,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>5105150</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3136702</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3525904</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1302207</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5105176</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1503903</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1302306</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1302405</v>
       </c>
@@ -7829,7 +7831,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2803500</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4209300</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1711902</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>4311304</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>4311403</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1600279</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3138203</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2919306</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3138401</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3138609</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3526902</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2307601</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3203205</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2919504</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1712405</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4113502</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>4113700</v>
       </c>
@@ -8067,7 +8069,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>5105259</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>5105309</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2919553</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3302403</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1600303</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2919801</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2704302</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1100130</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>4210100</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2920205</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2508901</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1302603</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>4114203</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1302702</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2920452</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1302801</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1504208</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5005400</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2920502</v>
       </c>
@@ -8333,7 +8335,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2704500</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4114609</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1200351</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3529005</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4115200</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2407401</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1712702</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3141108</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1302900</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4115804</v>
       </c>
@@ -8473,7 +8475,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2206209</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>3302908</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>5213087</v>
       </c>
@@ -8515,7 +8517,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>5213103</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1713205</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3530805</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3142700</v>
       </c>
@@ -8571,7 +8573,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1504802</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2509701</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4312401</v>
       </c>
@@ -8613,7 +8615,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3143302</v>
       </c>
@@ -8627,7 +8629,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>5213806</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2921708</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4312476</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2107100</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2408003</v>
       </c>
@@ -8697,7 +8699,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>4312500</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>5214002</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2922003</v>
       </c>
@@ -8739,7 +8741,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>5005681</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>3143906</v>
       </c>
@@ -8767,7 +8769,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>3144300</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2408102</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1714203</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>5005707</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1303007</v>
       </c>
@@ -8837,7 +8839,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5214606</v>
       </c>
@@ -8851,7 +8853,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>4312708</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1400407</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2804508</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>5006200</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>3303401</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1303106</v>
       </c>
@@ -8935,7 +8937,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>4313300</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2309300</v>
       </c>
@@ -8963,7 +8965,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1303304</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4313409</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4211652</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1505031</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1505106</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2207009</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1600501</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2923209</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>3534203</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1505304</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>3534302</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>4313508</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>4211751</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>3534708</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3146107</v>
       </c>
@@ -9173,7 +9175,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>1400456</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>3146305</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1721000</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2706307</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>4117909</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2706406</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>3147105</v>
       </c>
@@ -9271,7 +9273,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>3147006</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1505502</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4118204</v>
       </c>
@@ -9313,7 +9315,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>5006309</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>5106307</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4118402</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>5006358</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>3147402</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>3303807</v>
       </c>
@@ -9397,7 +9399,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1505536</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1303403</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2207702</v>
       </c>
@@ -9439,7 +9441,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>4314050</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>3147600</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>4314100</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>3147907</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2108009</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>4118501</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2510808</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3148004</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2409407</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>1303502</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2207801</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2924009</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3148707</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2108207</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2409803</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>4314407</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2706703</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2610905</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2611101</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2208007</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2924405</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1100189</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>4212908</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2108603</v>
       </c>
@@ -9775,7 +9777,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4314506</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>3204104</v>
       </c>
@@ -9817,7 +9819,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5217104</v>
       </c>
@@ -9831,7 +9833,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>3538709</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>5217203</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>3151206</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3539202</v>
       </c>
@@ -9887,7 +9889,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>3539301</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>4213104</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5217401</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2208403</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>3151503</v>
       </c>
@@ -9957,7 +9959,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>5106505</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3151800</v>
       </c>
@@ -9985,7 +9987,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>4119905</v>
       </c>
@@ -9999,7 +10001,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>5006606</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>4119954</v>
       </c>
@@ -10027,7 +10029,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>3152105</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5106752</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>5218003</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>1505809</v>
       </c>
@@ -10083,7 +10085,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>4314902</v>
       </c>
@@ -10097,7 +10099,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5106778</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2707305</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1505908</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>4315057</v>
       </c>
@@ -10153,7 +10155,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5006903</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2925303</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>1100205</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4315073</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1200393</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>4315107</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>5218300</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>3152501</v>
       </c>
@@ -10265,7 +10267,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1506005</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>3152808</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2109106</v>
       </c>
@@ -10307,7 +10309,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>3541307</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1303536</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>3541406</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>3541505</v>
       </c>
@@ -10363,7 +10365,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>5107040</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4315305</v>
       </c>
@@ -10391,7 +10393,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>5218508</v>
       </c>
@@ -10405,7 +10407,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2311405</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2611606</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>1506138</v>
       </c>
@@ -10447,7 +10449,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2311603</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>3542602</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3304201</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2109502</v>
       </c>
@@ -10503,7 +10505,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2512747</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2926608</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>3543402</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1200401</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>5007208</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>3543907</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>3304557</v>
       </c>
@@ -10601,7 +10603,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>4214805</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>4315602</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>3155504</v>
       </c>
@@ -10643,7 +10645,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>3155603</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>5218805</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>1100288</v>
       </c>
@@ -10685,7 +10687,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>5107602</v>
       </c>
@@ -10699,7 +10701,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1400472</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>3544251</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4316402</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>1506195</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>2311801</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>2612208</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>3157005</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1506203</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>2927408</v>
       </c>
@@ -10825,7 +10827,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1506401</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>4316808</v>
       </c>
@@ -10853,7 +10855,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>3546603</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>5219308</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>2109908</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1303601</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>2409332</v>
       </c>
@@ -10923,7 +10925,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>4316907</v>
       </c>
@@ -10937,7 +10939,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>2612604</v>
       </c>
@@ -10951,7 +10953,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>3158201</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>2312205</v>
       </c>
@@ -10979,7 +10981,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2110203</v>
       </c>
@@ -10993,7 +10995,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>2928406</v>
       </c>
@@ -11007,7 +11009,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4317202</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>5107776</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3159803</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>4317301</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1506708</v>
       </c>
@@ -11077,7 +11079,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>2708006</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4317103</v>
       </c>
@@ -11105,7 +11107,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1506807</v>
       </c>
@@ -11119,7 +11121,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>4317400</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>2928604</v>
       </c>
@@ -11147,7 +11149,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>4317509</v>
       </c>
@@ -11161,7 +11163,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>2928703</v>
       </c>
@@ -11175,7 +11177,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>3304706</v>
       </c>
@@ -11189,7 +11191,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1303700</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>4124400</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>3548500</v>
       </c>
@@ -11231,7 +11233,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>4215802</v>
       </c>
@@ -11245,7 +11247,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>4318002</v>
       </c>
@@ -11259,7 +11261,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>3548906</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5219803</v>
       </c>
@@ -11287,7 +11289,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>5107859</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>1507300</v>
       </c>
@@ -11315,7 +11317,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>3161106</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>4318309</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>2929255</v>
       </c>
@@ -11357,7 +11359,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1303809</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>5007695</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>3549102</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>3162500</v>
       </c>
@@ -11413,7 +11415,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>2210003</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>4216404</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3162906</v>
       </c>
@@ -11455,7 +11457,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>4216503</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>3549706</v>
       </c>
@@ -11483,7 +11485,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>3549805</v>
       </c>
@@ -11497,7 +11499,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>3549904</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3163706</v>
       </c>
@@ -11525,7 +11527,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>2111300</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>4318903</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3550100</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>3204906</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>5220207</v>
       </c>
@@ -11595,7 +11597,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>1100320</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>4217204</v>
       </c>
@@ -11623,7 +11625,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>3550308</v>
       </c>
@@ -11637,7 +11639,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1303908</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>3550407</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>2210508</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>2210607</v>
       </c>
@@ -11693,7 +11695,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>3550605</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>4319604</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>4319901</v>
       </c>
@@ -11735,7 +11737,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>4320107</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>2929909</v>
       </c>
@@ -11763,7 +11765,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>2930105</v>
       </c>
@@ -11777,7 +11779,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>2930204</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>2613909</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>3167103</v>
       </c>
@@ -11819,7 +11821,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>3167202</v>
       </c>
@@ -11833,7 +11835,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>5107909</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>2111805</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>4320701</v>
       </c>
@@ -11875,7 +11877,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>2312908</v>
       </c>
@@ -11889,7 +11891,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>4320800</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>4217709</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>3552205</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>5107925</v>
       </c>
@@ -11945,7 +11947,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>1507904</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>5107941</v>
       </c>
@@ -11973,7 +11975,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1304062</v>
       </c>
@@ -11987,7 +11989,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1720903</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>5107958</v>
       </c>
@@ -12015,7 +12017,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2516508</v>
       </c>
@@ -12029,7 +12031,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>3553807</v>
       </c>
@@ -12043,7 +12045,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1200609</v>
       </c>
@@ -12057,7 +12059,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>1600709</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>2112001</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>3554003</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>2313302</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>1304203</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>2931350</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>4127106</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>3554300</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>3168606</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>2211001</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>3305802</v>
       </c>
@@ -12211,7 +12213,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>4321451</v>
       </c>
@@ -12225,7 +12227,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>2414209</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>2615300</v>
       </c>
@@ -12253,7 +12255,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>2807402</v>
       </c>
@@ -12267,7 +12269,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>1721208</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>4127700</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1508001</v>
       </c>
@@ -12309,7 +12311,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>4321501</v>
       </c>
@@ -12323,7 +12325,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>2313500</v>
       </c>
@@ -12337,7 +12339,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>4321808</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>5008305</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>3169356</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>4321907</v>
       </c>
@@ -12393,7 +12395,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>3306008</v>
       </c>
@@ -12407,7 +12409,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>4322004</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>4218707</v>
       </c>
@@ -12435,7 +12437,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>1508084</v>
       </c>
@@ -12449,7 +12451,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>1508100</v>
       </c>
@@ -12463,7 +12465,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>3555000</v>
       </c>
@@ -12477,7 +12479,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>4322202</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>2112407</v>
       </c>
@@ -12505,7 +12507,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>2112506</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1304260</v>
       </c>
@@ -12533,7 +12535,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>2932002</v>
       </c>
@@ -12547,7 +12549,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>3169901</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>3555406</v>
       </c>
@@ -12575,7 +12577,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>3170107</v>
       </c>
@@ -12589,7 +12591,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>3170206</v>
       </c>
@@ -12603,7 +12605,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>3170305</v>
       </c>
@@ -12617,7 +12619,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>4128104</v>
       </c>
@@ -12631,7 +12633,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>3170404</v>
       </c>
@@ -12645,7 +12647,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>4128203</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>2709301</v>
       </c>
@@ -12673,7 +12675,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>5221601</v>
       </c>
@@ -12687,7 +12689,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1508159</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1304302</v>
       </c>
@@ -12715,7 +12717,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>2211209</v>
       </c>
@@ -12729,7 +12731,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>4322400</v>
       </c>
@@ -12743,7 +12745,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>2932804</v>
       </c>
@@ -12757,7 +12759,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>4322509</v>
       </c>
@@ -12771,7 +12773,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>3306107</v>
       </c>
@@ -12785,7 +12787,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>2211308</v>
       </c>
@@ -12799,7 +12801,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>3556305</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>2112704</v>
       </c>
@@ -12827,7 +12829,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>3170701</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>2211407</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>3306206</v>
       </c>
@@ -12869,7 +12871,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>4322608</v>
       </c>
@@ -12883,7 +12885,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>2933208</v>
       </c>
@@ -12897,7 +12899,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>4322806</v>
       </c>
@@ -12911,7 +12913,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>3171303</v>
       </c>
@@ -12925,7 +12927,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>2709400</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>4219309</v>
       </c>
@@ -12953,7 +12955,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>2517209</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>5105507</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>5108600</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1100304</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1508308</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>3205309</v>
       </c>
@@ -13037,7 +13039,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>2933307</v>
       </c>
@@ -13051,7 +13053,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>3306305</v>
       </c>
@@ -13065,7 +13067,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>3557105</v>
       </c>
@@ -13079,7 +13081,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1722107</v>
       </c>
@@ -13094,7 +13096,7 @@
       </c>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>4219507</v>
       </c>
@@ -13108,7 +13110,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1508407</v>
       </c>
@@ -13122,7 +13124,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>2933604</v>
       </c>
@@ -13137,7 +13139,7 @@
       </c>
       <c r="G746" s="1"/>
     </row>
-    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>2114007</v>
       </c>
@@ -13151,7 +13153,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>3513405</v>
       </c>
@@ -13165,7 +13167,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>4301305</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>4316501</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>3121605</v>
       </c>
@@ -13207,17 +13209,22 @@
         <v>761</v>
       </c>
     </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>3139409</v>
+      </c>
+      <c r="B752" t="s">
+        <v>776</v>
+      </c>
+      <c r="C752">
+        <v>214</v>
+      </c>
+      <c r="D752" t="s">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D751">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Pintópolis"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:D747">
-      <sortCondition ref="B1:B747"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D751"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/01_raw/SEDE+regic.xlsx
+++ b/data/01_raw/SEDE+regic.xlsx
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A750" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C756" sqref="C756"/>
+    <sheetView tabSelected="1" topLeftCell="A738" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D753" sqref="D753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13166,6 +13166,7 @@
       <c r="D748" t="s">
         <v>763</v>
       </c>
+      <c r="G748" s="1"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749">
